--- a/Adoption_Reports2018.xlsx
+++ b/Adoption_Reports2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Pet Name</t>
   </si>
@@ -41,25 +41,37 @@
     <t>Adopted At</t>
   </si>
   <si>
+    <t>Missy</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Canine</t>
+  </si>
+  <si>
+    <t>Aspin</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ralph Adrian Buen</t>
+  </si>
+  <si>
+    <t>Jul 5, 2018</t>
+  </si>
+  <si>
     <t>Bugoy</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Canine</t>
-  </si>
-  <si>
-    <t>Aspin</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>Allen, Torres</t>
-  </si>
-  <si>
-    <t>May. 30, 2018</t>
+    <t>Allen Torres</t>
   </si>
 </sst>
 </file>
@@ -125,20 +137,50 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="676275" cy="666750"/>
+    <xdr:ext cx="904875" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Adoption Proof" descr="Logo"/>
+        <xdr:cNvPr id="1" name="" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1171575" cy="619125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -458,9 +500,9 @@
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -513,7 +555,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customHeight="1" ht="60"/>
+    <row r="3" spans="1:8" customHeight="1" ht="60">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" customHeight="1" ht="60"/>
     <row r="5" spans="1:8" customHeight="1" ht="60"/>
     <row r="6" spans="1:8" customHeight="1" ht="60"/>
